--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8573869F-9830-401B-A2D1-3DE14D9C0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3795" yWindow="2025" windowWidth="21600" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="reports" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,106 +26,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>email для уведомления администраторов о критических ошибках</t>
-  </si>
-  <si>
-    <t>email для уведомления о начале и об окончании работы</t>
-  </si>
-  <si>
-    <t>email для уведомления пользователей о событиях робота</t>
-  </si>
-  <si>
-    <t>Время начала работы</t>
-  </si>
-  <si>
-    <t>Время окончания работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Временный путь для сохранения комиссионных документов </t>
-  </si>
-  <si>
-    <t>C:\Commissions\temp\</t>
-  </si>
-  <si>
-    <t>КомДок.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя файла для сохранения комиссионных документов </t>
-  </si>
-  <si>
-    <t>\\TRANSIT\00-Обмен\Акты\</t>
-  </si>
-  <si>
-    <t>Имя файла с перечнем клиентов имеющих просрочку</t>
-  </si>
-  <si>
-    <t>Перечень клиентов, имеющих просрочку (**date**)</t>
-  </si>
-  <si>
-    <t>Временный путь для сохранения файла excel с перечнем криентов имеющих просрочку</t>
-  </si>
-  <si>
-    <t>Путь для сохранения отчётов Подлежащих оплате</t>
-  </si>
-  <si>
-    <t>Путь для сохранения отчётов Просроченные</t>
-  </si>
-  <si>
-    <t>Путь к шаблону отчётов</t>
-  </si>
-  <si>
-    <t>C:\Commissions\Config\shape\report.xlsx</t>
-  </si>
-  <si>
-    <t>Email для отправки отчёта о недоставленных письмах</t>
-  </si>
-  <si>
-    <t>Путь файла с перечнем клиентов имеющий просрочку</t>
-  </si>
-  <si>
-    <t>Email для направления информации о завершении обработки подготовки и отправки сообщений клиентам о наличии просроченногоо комиссионного вознаграждения</t>
-  </si>
-  <si>
-    <t>Email для направления информации о завершении обработки подготовки и отправки сообщений клиентам об оказанных услугах депозитарного обслуживания</t>
-  </si>
-  <si>
-    <t>Количество дней до удаления из директории</t>
-  </si>
-  <si>
-    <t>email для отправки уведомления об удалении</t>
-  </si>
-  <si>
-    <t>m.ivanchik@cbt.by;V.Stankevich@cbt.by;robot_cbt@belapb.by</t>
-  </si>
-  <si>
-    <t>m.ivanchik@cbt.by;V.Stankevich@cbt.by;robot_cbt@belapb.by;n.trushhenko@belapb.by</t>
-  </si>
-  <si>
-    <t>C:\Комиссии\Акты\</t>
-  </si>
-  <si>
-    <t>C:\Комиссии\Отчеты\Подлежащие оплате\</t>
-  </si>
-  <si>
-    <t>C:\Комиссии\Отчеты\Просроченные\</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Путь</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Администраторы RPA</t>
+  </si>
+  <si>
+    <t>Контент Менеджеры</t>
+  </si>
+  <si>
+    <t>Временный путь хранения данных</t>
+  </si>
+  <si>
+    <t>kp_user2</t>
+  </si>
+  <si>
+    <t>1234567Qq</t>
+  </si>
+  <si>
+    <t>https://superset.cbt.by/login/</t>
+  </si>
+  <si>
+    <t>I.Torgonskaya@nbrb.by;M.Ivanchick@nbrb.by</t>
+  </si>
+  <si>
+    <t>K.Korobina@nbrb.by</t>
+  </si>
+  <si>
+    <t>d:\AnalyticsData\</t>
+  </si>
+  <si>
+    <t>\\ias\file_share\17201.zip; \\ias\file_share\17202.zip</t>
+  </si>
+  <si>
+    <t>Описание 17201 и 17202. Несколько доков грузится одновременно</t>
+  </si>
+  <si>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,32 +98,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,13 +151,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -220,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,12 +216,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -300,7 +256,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -332,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,240 +437,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="152.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CA1FD154-617F-4330-9833-90846C64C1BC}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{54F1B3F7-618F-4E2E-9D50-6B8770237A22}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{A896E2FD-2881-4AD9-BFD1-A8BACD7B2BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5843C1E-95CC-4A96-905A-B5C251EF31CE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="\\ias\file_share\17201.zip;" xr:uid="{77E7A399-6225-43CA-BD17-B283C27209DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8573869F-9830-401B-A2D1-3DE14D9C0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A72F85-3B6F-4CA9-905A-273D35D9A039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2025" windowWidth="21600" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1755" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Reports</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>Почта робота Apache</t>
+  </si>
+  <si>
+    <t>kp_user2@cbt.by</t>
   </si>
 </sst>
 </file>
@@ -151,12 +157,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -438,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,11 +514,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{CA1FD154-617F-4330-9833-90846C64C1BC}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{54F1B3F7-618F-4E2E-9D50-6B8770237A22}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{A896E2FD-2881-4AD9-BFD1-A8BACD7B2BA9}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{82F5D175-6720-460D-881B-5A8DECFA5CF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5843C1E-95CC-4A96-905A-B5C251EF31CE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +573,9 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="5">
+        <v>45212.710416666669</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A72F85-3B6F-4CA9-905A-273D35D9A039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA035A-0B4F-4299-8479-71D6106BA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1755" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2100" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Reports</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>kp_user2@cbt.by</t>
+  </si>
+  <si>
+    <t>Проверка отправителя письма роботу</t>
+  </si>
+  <si>
+    <t>vitali.pobudei.cbt@gmail.com; V.Pobudei@cbt.by</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +528,21 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{CA1FD154-617F-4330-9833-90846C64C1BC}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{54F1B3F7-618F-4E2E-9D50-6B8770237A22}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{A896E2FD-2881-4AD9-BFD1-A8BACD7B2BA9}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{82F5D175-6720-460D-881B-5A8DECFA5CF2}"/>
+    <hyperlink ref="A9" r:id="rId5" display="vitali.pobudei.cbt@gmail.com" xr:uid="{A92D5BDD-197F-414A-B87C-3929C9A5CA73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -538,7 +553,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="5">
-        <v>45212.710416666669</v>
+        <v>45215.710416666669</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA035A-0B4F-4299-8479-71D6106BA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA256154-16DE-4094-95D1-DB723159BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2100" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="3450" windowWidth="21600" windowHeight="11880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Reports</t>
   </si>
@@ -95,6 +95,39 @@
   </si>
   <si>
     <t>vitali.pobudei.cbt@gmail.com; V.Pobudei@cbt.by</t>
+  </si>
+  <si>
+    <t>\\ias\file_share\Prices_Arch_10_239.csv; \\ias\file_share\Prices_Arch_10_245.csv</t>
+  </si>
+  <si>
+    <t>Описание грузится два аукциона 239, 245</t>
+  </si>
+  <si>
+    <t>Контент-менеджеры</t>
+  </si>
+  <si>
+    <t>K.Korobina@nbrb.by; N.Bogatova@nbrb.by</t>
+  </si>
+  <si>
+    <t>kp_user3@cbt.by</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>kp_user4@cbt.by</t>
+  </si>
+  <si>
+    <t>Сервер</t>
+  </si>
+  <si>
+    <t>CBT-STENDNBRBBY</t>
+  </si>
+  <si>
+    <t>База данных</t>
+  </si>
+  <si>
+    <t>ApacheSuperset</t>
   </si>
 </sst>
 </file>
@@ -163,13 +196,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -453,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,21 +584,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5843C1E-95CC-4A96-905A-B5C251EF31CE}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="63.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="2" customWidth="1"/>
+    <col min="6" max="10" width="19.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +613,26 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1720</v>
       </c>
@@ -589,17 +643,48 @@
         <v>17</v>
       </c>
       <c r="D2" s="5">
-        <v>45215.710416666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+        <v>45224.708333333336</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1830</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="\\ias\file_share\17201.zip;" xr:uid="{77E7A399-6225-43CA-BD17-B283C27209DA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D18D92BD-7C92-4172-89A1-C11EDCFB0BA6}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{4375FFA6-5FDB-42D6-A645-B8F7343FE3EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>